--- a/build/output/StructureDefinition-plannet-Organization.xlsx
+++ b/build/output/StructureDefinition-plannet-Organization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="463">
   <si>
     <t>Path</t>
   </si>
@@ -669,6 +669,9 @@
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
@@ -4266,7 +4269,7 @@
         <v>40</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>40</v>
@@ -4320,21 +4323,21 @@
         <v>61</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4360,16 +4363,16 @@
         <v>149</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4394,13 +4397,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -4418,7 +4421,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4436,18 +4439,18 @@
         <v>125</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4473,16 +4476,16 @@
         <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4531,7 +4534,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4546,13 +4549,13 @@
         <v>61</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -4560,7 +4563,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4586,16 +4589,16 @@
         <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4644,7 +4647,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4665,7 +4668,7 @@
         <v>40</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4673,7 +4676,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4696,19 +4699,19 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4757,7 +4760,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4766,19 +4769,19 @@
         <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4786,7 +4789,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4895,7 +4898,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5006,10 +5009,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>40</v>
@@ -5031,13 +5034,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5117,10 +5120,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>40</v>
@@ -5142,13 +5145,13 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5228,7 +5231,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5254,10 +5257,10 @@
         <v>69</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5287,10 +5290,10 @@
         <v>143</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -5308,7 +5311,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5317,19 +5320,19 @@
         <v>49</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -5337,7 +5340,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5363,16 +5366,16 @@
         <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -5421,7 +5424,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5439,10 +5442,10 @@
         <v>175</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -5450,7 +5453,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5476,16 +5479,16 @@
         <v>69</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5513,10 +5516,10 @@
         <v>143</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5534,7 +5537,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5549,13 +5552,13 @@
         <v>61</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5563,7 +5566,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5586,16 +5589,16 @@
         <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5645,7 +5648,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5674,7 +5677,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5700,10 +5703,10 @@
         <v>179</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5754,7 +5757,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5775,7 +5778,7 @@
         <v>92</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5783,7 +5786,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5806,19 +5809,19 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5867,7 +5870,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5876,19 +5879,19 @@
         <v>42</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>125</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5896,7 +5899,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6005,7 +6008,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6116,10 +6119,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>40</v>
@@ -6141,16 +6144,16 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6229,7 +6232,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6255,16 +6258,16 @@
         <v>69</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -6277,7 +6280,7 @@
         <v>40</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>40</v>
@@ -6292,10 +6295,10 @@
         <v>143</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
@@ -6313,7 +6316,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6328,13 +6331,13 @@
         <v>61</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -6342,7 +6345,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6368,13 +6371,13 @@
         <v>69</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6388,7 +6391,7 @@
         <v>40</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>40</v>
@@ -6403,10 +6406,10 @@
         <v>143</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -6424,7 +6427,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6442,10 +6445,10 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6453,7 +6456,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6479,16 +6482,16 @@
         <v>51</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6501,7 +6504,7 @@
         <v>40</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>40</v>
@@ -6537,7 +6540,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6555,10 +6558,10 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6566,7 +6569,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6577,7 +6580,7 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>50</v>
@@ -6592,10 +6595,10 @@
         <v>51</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6610,7 +6613,7 @@
         <v>40</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>40</v>
@@ -6646,7 +6649,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6661,13 +6664,13 @@
         <v>61</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6675,11 +6678,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6701,10 +6704,10 @@
         <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6719,7 +6722,7 @@
         <v>40</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>40</v>
@@ -6755,7 +6758,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6770,13 +6773,13 @@
         <v>61</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>40</v>
@@ -6784,11 +6787,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6810,13 +6813,13 @@
         <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6830,7 +6833,7 @@
         <v>40</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>40</v>
@@ -6866,7 +6869,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6884,10 +6887,10 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>40</v>
@@ -6895,11 +6898,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6921,10 +6924,10 @@
         <v>51</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6954,10 +6957,10 @@
         <v>154</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -6975,7 +6978,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6990,13 +6993,13 @@
         <v>61</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
@@ -7004,11 +7007,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7030,10 +7033,10 @@
         <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7048,7 +7051,7 @@
         <v>40</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>40</v>
@@ -7084,7 +7087,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7099,13 +7102,13 @@
         <v>61</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -7113,7 +7116,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7139,13 +7142,13 @@
         <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7195,7 +7198,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7210,13 +7213,13 @@
         <v>61</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -7224,7 +7227,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7250,14 +7253,14 @@
         <v>179</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7270,7 +7273,7 @@
         <v>40</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>40</v>
@@ -7306,7 +7309,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7324,10 +7327,10 @@
         <v>183</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -7335,7 +7338,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7358,17 +7361,17 @@
         <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7417,7 +7420,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7435,10 +7438,10 @@
         <v>125</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7469,19 +7472,19 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7530,7 +7533,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7551,7 +7554,7 @@
         <v>40</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>40</v>
@@ -7559,7 +7562,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7668,7 +7671,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7779,11 +7782,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7805,10 +7808,10 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>114</v>
@@ -7863,7 +7866,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7892,7 +7895,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7918,14 +7921,14 @@
         <v>149</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7953,10 +7956,10 @@
         <v>154</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>40</v>
@@ -7974,7 +7977,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7995,7 +7998,7 @@
         <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>40</v>
@@ -8003,7 +8006,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8026,17 +8029,17 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -8085,7 +8088,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8103,10 +8106,10 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>40</v>
@@ -8114,7 +8117,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8137,17 +8140,17 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -8196,7 +8199,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8214,10 +8217,10 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>40</v>
@@ -8225,7 +8228,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8334,7 +8337,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8445,10 +8448,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>40</v>
@@ -8470,13 +8473,13 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8556,10 +8559,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>40</v>
@@ -8581,13 +8584,13 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8667,7 +8670,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8693,10 +8696,10 @@
         <v>69</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8726,10 +8729,10 @@
         <v>143</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>40</v>
@@ -8747,7 +8750,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8756,19 +8759,19 @@
         <v>49</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>40</v>
@@ -8776,7 +8779,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8802,16 +8805,16 @@
         <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8860,7 +8863,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8878,10 +8881,10 @@
         <v>175</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>40</v>
@@ -8889,7 +8892,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8915,16 +8918,16 @@
         <v>69</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8952,10 +8955,10 @@
         <v>143</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>40</v>
@@ -8973,7 +8976,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8988,13 +8991,13 @@
         <v>61</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>40</v>
@@ -9002,7 +9005,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9025,16 +9028,16 @@
         <v>50</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9084,7 +9087,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -9113,7 +9116,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9139,10 +9142,10 @@
         <v>179</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9193,7 +9196,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9214,7 +9217,7 @@
         <v>92</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>40</v>
@@ -9222,7 +9225,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9245,17 +9248,17 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -9304,7 +9307,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9322,10 +9325,10 @@
         <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>40</v>
@@ -9333,7 +9336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9356,17 +9359,17 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9415,7 +9418,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
